--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8019210000000001</v>
+        <v>1.107673</v>
       </c>
       <c r="N2">
-        <v>2.405763</v>
+        <v>3.323019</v>
       </c>
       <c r="O2">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="P2">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="Q2">
-        <v>130.231406649537</v>
+        <v>223.1293640788147</v>
       </c>
       <c r="R2">
-        <v>1172.082659845833</v>
+        <v>2008.164276709332</v>
       </c>
       <c r="S2">
-        <v>0.06205772610506165</v>
+        <v>0.09002682682150491</v>
       </c>
       <c r="T2">
-        <v>0.06205772610506165</v>
+        <v>0.09002682682150491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.434217</v>
       </c>
       <c r="O3">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="P3">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="Q3">
-        <v>240.037907848483</v>
+        <v>297.7425104693863</v>
       </c>
       <c r="R3">
-        <v>2160.341170636347</v>
+        <v>2679.682594224476</v>
       </c>
       <c r="S3">
-        <v>0.1143825988164288</v>
+        <v>0.1201312679668618</v>
       </c>
       <c r="T3">
-        <v>0.1143825988164288</v>
+        <v>0.1201312679668618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.517922333333333</v>
+        <v>3.299541</v>
       </c>
       <c r="N4">
-        <v>7.553767</v>
+        <v>9.898623000000001</v>
       </c>
       <c r="O4">
-        <v>0.4982973326483348</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="P4">
-        <v>0.4982973326483347</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="Q4">
-        <v>408.908816833933</v>
+        <v>664.658689958116</v>
       </c>
       <c r="R4">
-        <v>3680.179351505396</v>
+        <v>5981.928209623045</v>
       </c>
       <c r="S4">
-        <v>0.1948527779118114</v>
+        <v>0.2681722910980543</v>
       </c>
       <c r="T4">
-        <v>0.1948527779118114</v>
+        <v>0.2681722910980544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2551363333333334</v>
+        <v>0.06176066666666667</v>
       </c>
       <c r="N5">
-        <v>0.7654090000000001</v>
+        <v>0.185282</v>
       </c>
       <c r="O5">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="P5">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="Q5">
-        <v>41.433961172491</v>
+        <v>12.44105280025511</v>
       </c>
       <c r="R5">
-        <v>372.905650552419</v>
+        <v>111.969475202296</v>
       </c>
       <c r="S5">
-        <v>0.01974406542969907</v>
+        <v>0.005019637422218192</v>
       </c>
       <c r="T5">
-        <v>0.01974406542969907</v>
+        <v>0.005019637422218192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8019210000000001</v>
+        <v>1.107673</v>
       </c>
       <c r="N6">
-        <v>2.405763</v>
+        <v>3.323019</v>
       </c>
       <c r="O6">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="P6">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="Q6">
-        <v>52.45955849085801</v>
+        <v>72.46104857242067</v>
       </c>
       <c r="R6">
-        <v>472.1360264177221</v>
+        <v>652.1494371517859</v>
       </c>
       <c r="S6">
-        <v>0.0249979708902246</v>
+        <v>0.02923612630756091</v>
       </c>
       <c r="T6">
-        <v>0.0249979708902246</v>
+        <v>0.02923612630756092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.434217</v>
       </c>
       <c r="O7">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="P7">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="Q7">
         <v>96.69159683337757</v>
@@ -883,10 +883,10 @@
         <v>870.2243715003981</v>
       </c>
       <c r="S7">
-        <v>0.04607537296356251</v>
+        <v>0.03901251491102935</v>
       </c>
       <c r="T7">
-        <v>0.04607537296356251</v>
+        <v>0.03901251491102935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.517922333333333</v>
+        <v>3.299541</v>
       </c>
       <c r="N8">
-        <v>7.553767</v>
+        <v>9.898623000000001</v>
       </c>
       <c r="O8">
-        <v>0.4982973326483348</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="P8">
-        <v>0.4982973326483347</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="Q8">
-        <v>164.7158434820109</v>
+        <v>215.847276829618</v>
       </c>
       <c r="R8">
-        <v>1482.442591338098</v>
+        <v>1942.625491466562</v>
       </c>
       <c r="S8">
-        <v>0.07849021186938994</v>
+        <v>0.08708869624246131</v>
       </c>
       <c r="T8">
-        <v>0.07849021186938994</v>
+        <v>0.08708869624246134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2551363333333334</v>
+        <v>0.06176066666666667</v>
       </c>
       <c r="N9">
-        <v>0.7654090000000001</v>
+        <v>0.185282</v>
       </c>
       <c r="O9">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="P9">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="Q9">
-        <v>16.69034655738289</v>
+        <v>4.040220053389778</v>
       </c>
       <c r="R9">
-        <v>150.213119016446</v>
+        <v>36.361980480508</v>
       </c>
       <c r="S9">
-        <v>0.007953265513317778</v>
+        <v>0.001630122474327562</v>
       </c>
       <c r="T9">
-        <v>0.007953265513317778</v>
+        <v>0.001630122474327563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8019210000000001</v>
+        <v>1.107673</v>
       </c>
       <c r="N10">
-        <v>2.405763</v>
+        <v>3.323019</v>
       </c>
       <c r="O10">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="P10">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="Q10">
-        <v>49.061837123427</v>
+        <v>66.94204200421733</v>
       </c>
       <c r="R10">
-        <v>441.556534110843</v>
+        <v>602.478378037956</v>
       </c>
       <c r="S10">
-        <v>0.02337889245572088</v>
+        <v>0.02700935238834297</v>
       </c>
       <c r="T10">
-        <v>0.02337889245572088</v>
+        <v>0.02700935238834297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.434217</v>
       </c>
       <c r="O11">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="P11">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="Q11">
-        <v>90.42903736732633</v>
+        <v>89.3270669441898</v>
       </c>
       <c r="R11">
-        <v>813.861336305937</v>
+        <v>803.9436024977081</v>
       </c>
       <c r="S11">
-        <v>0.04309114504143977</v>
+        <v>0.03604112089620343</v>
       </c>
       <c r="T11">
-        <v>0.04309114504143978</v>
+        <v>0.03604112089620343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.517922333333333</v>
+        <v>3.299541</v>
       </c>
       <c r="N12">
-        <v>7.553767</v>
+        <v>9.898623000000001</v>
       </c>
       <c r="O12">
-        <v>0.4982973326483348</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="P12">
-        <v>0.4982973326483347</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="Q12">
-        <v>154.0474627892763</v>
+        <v>199.407236807828</v>
       </c>
       <c r="R12">
-        <v>1386.427165103487</v>
+        <v>1794.665131270452</v>
       </c>
       <c r="S12">
-        <v>0.07340652688089945</v>
+        <v>0.08045557270853904</v>
       </c>
       <c r="T12">
-        <v>0.07340652688089946</v>
+        <v>0.08045557270853905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2551363333333334</v>
+        <v>0.06176066666666667</v>
       </c>
       <c r="N13">
-        <v>0.7654090000000001</v>
+        <v>0.185282</v>
       </c>
       <c r="O13">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="P13">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="Q13">
-        <v>15.60933961109433</v>
+        <v>3.732496090640889</v>
       </c>
       <c r="R13">
-        <v>140.484056499849</v>
+        <v>33.592464815768</v>
       </c>
       <c r="S13">
-        <v>0.007438145276837686</v>
+        <v>0.001505963953024934</v>
       </c>
       <c r="T13">
-        <v>0.007438145276837687</v>
+        <v>0.001505963953024934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8019210000000001</v>
+        <v>1.107673</v>
       </c>
       <c r="N14">
-        <v>2.405763</v>
+        <v>3.323019</v>
       </c>
       <c r="O14">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="P14">
-        <v>0.1587003260603691</v>
+        <v>0.1862559687185926</v>
       </c>
       <c r="Q14">
-        <v>101.28819030481</v>
+        <v>99.09856493454167</v>
       </c>
       <c r="R14">
-        <v>911.5937127432902</v>
+        <v>891.887084410875</v>
       </c>
       <c r="S14">
-        <v>0.04826573660936195</v>
+        <v>0.03998366320118379</v>
       </c>
       <c r="T14">
-        <v>0.04826573660936195</v>
+        <v>0.03998366320118379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.434217</v>
       </c>
       <c r="O15">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="P15">
-        <v>0.2925108099685761</v>
+        <v>0.2485388686743746</v>
       </c>
       <c r="Q15">
-        <v>186.6907984489011</v>
+        <v>132.2365419241806</v>
       </c>
       <c r="R15">
-        <v>1680.21718604011</v>
+        <v>1190.128877317625</v>
       </c>
       <c r="S15">
-        <v>0.08896169314714504</v>
+        <v>0.05335396490028002</v>
       </c>
       <c r="T15">
-        <v>0.08896169314714505</v>
+        <v>0.05335396490028002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.517922333333333</v>
+        <v>3.299541</v>
       </c>
       <c r="N16">
-        <v>7.553767</v>
+        <v>9.898623000000001</v>
       </c>
       <c r="O16">
-        <v>0.4982973326483348</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="P16">
-        <v>0.4982973326483347</v>
+        <v>0.55482006447906</v>
       </c>
       <c r="Q16">
-        <v>318.0310734740678</v>
+        <v>295.1952228163751</v>
       </c>
       <c r="R16">
-        <v>2862.27966126661</v>
+        <v>2656.757005347376</v>
       </c>
       <c r="S16">
-        <v>0.1515478159862339</v>
+        <v>0.1191035044300052</v>
       </c>
       <c r="T16">
-        <v>0.151547815986234</v>
+        <v>0.1191035044300052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2551363333333334</v>
+        <v>0.06176066666666667</v>
       </c>
       <c r="N17">
-        <v>0.7654090000000001</v>
+        <v>0.185282</v>
       </c>
       <c r="O17">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="P17">
-        <v>0.05049153132272008</v>
+        <v>0.01038509812797287</v>
       </c>
       <c r="Q17">
-        <v>32.22549039660778</v>
+        <v>5.525451497027778</v>
       </c>
       <c r="R17">
-        <v>290.0294135694701</v>
+        <v>49.72906347325001</v>
       </c>
       <c r="S17">
-        <v>0.01535605510286554</v>
+        <v>0.00222937427840218</v>
       </c>
       <c r="T17">
-        <v>0.01535605510286554</v>
+        <v>0.002229374278402181</v>
       </c>
     </row>
   </sheetData>
